--- a/M&M colorsensor excel gegevens.xlsx
+++ b/M&M colorsensor excel gegevens.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarno\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarno\Desktop\hw periode 4\IPASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6A5A0-7C9C-4BA9-9E0F-E6F6BCEF6113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C5FAEB-4407-4B88-B55F-F841F5C797F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4EC3B2E3-206A-42BC-B6B3-954F402DF77E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>red:</t>
   </si>
@@ -75,23 +75,50 @@
     <t>n = bad data</t>
   </si>
   <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>GEM</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1,7-1,9</t>
+  </si>
+  <si>
+    <t>1,5-1,6</t>
+  </si>
+  <si>
+    <t>2,1-2,4</t>
+  </si>
+  <si>
+    <t>2,3-2,7</t>
+  </si>
+  <si>
+    <t>1,8-1,9</t>
+  </si>
+  <si>
+    <t>1,9-2,2</t>
+  </si>
+  <si>
+    <t>1,1-1,2</t>
+  </si>
+  <si>
+    <t>3,6-3,8</t>
+  </si>
+  <si>
+    <t>3,4-3,6</t>
+  </si>
+  <si>
+    <t>code values</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>program values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +129,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,20 +196,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -494,14 +526,14 @@
   <dimension ref="C1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="2.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="2.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:26" x14ac:dyDescent="0.25">
@@ -510,41 +542,58 @@
       </c>
     </row>
     <row r="2" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="U2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" t="s">
-        <v>15</v>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="N3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -554,172 +603,156 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1486</v>
-      </c>
-      <c r="H4">
-        <v>776</v>
+        <v>1898</v>
       </c>
       <c r="J4">
-        <v>1898</v>
-      </c>
-      <c r="L4">
         <v>1590</v>
       </c>
       <c r="N4">
         <v>1541</v>
       </c>
-      <c r="U4">
-        <f>MIN(J4,L4,N4)</f>
-        <v>1541</v>
-      </c>
-      <c r="V4">
-        <f>MAX(N4,L4,J4)</f>
-        <v>1898</v>
-      </c>
-      <c r="W4" s="1">
-        <f>AVERAGE(N4,L4,J4)</f>
-        <v>1676.3333333333333</v>
-      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>590</v>
-      </c>
-      <c r="H5">
-        <v>302</v>
+        <v>779</v>
+      </c>
+      <c r="G5">
+        <f>779/443</f>
+        <v>1.7584650112866818</v>
       </c>
       <c r="J5">
-        <v>779</v>
-      </c>
-      <c r="L5">
         <v>583</v>
+      </c>
+      <c r="K5">
+        <f>583/396</f>
+        <v>1.4722222222222223</v>
       </c>
       <c r="N5">
         <v>602</v>
       </c>
-      <c r="U5">
-        <f t="shared" ref="U5:U37" si="0">MIN(J5,L5,N5)</f>
-        <v>583</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ref="V5:V37" si="1">MAX(N5,L5,J5)</f>
-        <v>779</v>
-      </c>
-      <c r="W5" s="1">
-        <f t="shared" ref="W5:W37" si="2">AVERAGE(N5,L5,J5)</f>
-        <v>654.66666666666663</v>
-      </c>
-      <c r="Y5">
-        <v>550</v>
-      </c>
-      <c r="Z5">
-        <v>800</v>
-      </c>
+      <c r="O5">
+        <f>602/397</f>
+        <v>1.5163727959697733</v>
+      </c>
+      <c r="Q5">
+        <v>1.5</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
     </row>
     <row r="6" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>446</v>
-      </c>
-      <c r="H6">
-        <v>241</v>
+        <v>580</v>
+      </c>
+      <c r="G6">
+        <f>580/443</f>
+        <v>1.3092550790067721</v>
       </c>
       <c r="J6">
-        <v>580</v>
-      </c>
-      <c r="L6">
         <v>521</v>
+      </c>
+      <c r="K6">
+        <f>521/396</f>
+        <v>1.3156565656565657</v>
       </c>
       <c r="N6">
         <v>501</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>501</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="1"/>
-        <v>580</v>
-      </c>
-      <c r="W6" s="1">
-        <f t="shared" si="2"/>
-        <v>534</v>
-      </c>
-      <c r="Y6">
-        <v>480</v>
-      </c>
-      <c r="Z6">
-        <v>600</v>
-      </c>
+      <c r="O6">
+        <f>501/397</f>
+        <v>1.2619647355163728</v>
+      </c>
+      <c r="Q6">
+        <v>1.3</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>338</v>
-      </c>
-      <c r="H7">
-        <v>183</v>
+        <v>443</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>443</v>
-      </c>
-      <c r="L7">
         <v>396</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="N7">
         <v>397</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>396</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="1"/>
-        <v>443</v>
-      </c>
-      <c r="W7" s="1">
-        <f t="shared" si="2"/>
-        <v>412</v>
-      </c>
-      <c r="Y7">
-        <v>360</v>
-      </c>
-      <c r="Z7">
-        <v>450</v>
-      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -729,146 +762,129 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1534</v>
-      </c>
-      <c r="H9">
-        <v>968</v>
+        <v>1708</v>
       </c>
       <c r="J9">
-        <v>1708</v>
-      </c>
-      <c r="L9">
         <v>2031</v>
       </c>
       <c r="N9">
         <v>1833</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>1708</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="1"/>
-        <v>2031</v>
-      </c>
-      <c r="W9" s="1">
-        <f t="shared" si="2"/>
-        <v>1857.3333333333333</v>
-      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
     </row>
     <row r="10" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>589</v>
-      </c>
-      <c r="H10">
-        <v>401</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="L10">
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10">
         <v>801</v>
+      </c>
+      <c r="K10">
+        <f>801/416</f>
+        <v>1.9254807692307692</v>
       </c>
       <c r="N10">
         <v>686</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>686</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="1"/>
-        <v>801</v>
-      </c>
-      <c r="W10" s="1">
-        <f t="shared" si="2"/>
-        <v>743.5</v>
-      </c>
-      <c r="Y10">
-        <v>650</v>
-      </c>
-      <c r="Z10">
-        <v>850</v>
-      </c>
+      <c r="O10">
+        <f>686/391</f>
+        <v>1.7544757033248082</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
     </row>
     <row r="11" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>489</v>
-      </c>
-      <c r="H11">
-        <v>307</v>
+        <v>554</v>
+      </c>
+      <c r="G11">
+        <f>554/361</f>
+        <v>1.5346260387811634</v>
       </c>
       <c r="J11">
-        <v>554</v>
-      </c>
-      <c r="L11">
         <v>665</v>
+      </c>
+      <c r="K11">
+        <f>665/416</f>
+        <v>1.5985576923076923</v>
       </c>
       <c r="N11">
         <v>620</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>554</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="1"/>
-        <v>665</v>
-      </c>
-      <c r="W11" s="1">
-        <f t="shared" si="2"/>
-        <v>613</v>
-      </c>
-      <c r="Y11">
-        <v>550</v>
-      </c>
-      <c r="Z11">
-        <v>700</v>
-      </c>
+      <c r="O11">
+        <f>620/391</f>
+        <v>1.5856777493606138</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="F12">
-        <v>322</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
+        <v>361</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>361</v>
-      </c>
-      <c r="L12">
         <v>416</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="N12">
         <v>391</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>361</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="1"/>
-        <v>416</v>
-      </c>
-      <c r="W12" s="1">
-        <f t="shared" si="2"/>
-        <v>389.33333333333331</v>
-      </c>
-      <c r="Y12">
-        <v>350</v>
-      </c>
-      <c r="Z12">
-        <v>430</v>
-      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
@@ -887,14 +903,14 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
     <row r="14" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
@@ -904,172 +920,156 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2331</v>
-      </c>
-      <c r="H14">
-        <v>1174</v>
+        <v>4125</v>
       </c>
       <c r="J14">
-        <v>4125</v>
-      </c>
-      <c r="L14">
         <v>3740</v>
       </c>
       <c r="N14">
         <v>4529</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>3740</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="1"/>
-        <v>4529</v>
-      </c>
-      <c r="W14" s="1">
-        <f t="shared" si="2"/>
-        <v>4131.333333333333</v>
-      </c>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
     </row>
     <row r="15" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>720</v>
-      </c>
-      <c r="H15">
-        <v>381</v>
+        <v>1511</v>
+      </c>
+      <c r="G15">
+        <f>1511/641</f>
+        <v>2.3572542901716069</v>
       </c>
       <c r="J15">
-        <v>1511</v>
-      </c>
-      <c r="L15">
         <v>1331</v>
+      </c>
+      <c r="K15">
+        <f>1331/638</f>
+        <v>2.0862068965517242</v>
       </c>
       <c r="N15">
         <v>1630</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>1331</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="1"/>
-        <v>1630</v>
-      </c>
-      <c r="W15" s="1">
-        <f t="shared" si="2"/>
-        <v>1490.6666666666667</v>
-      </c>
-      <c r="Y15">
-        <v>1200</v>
-      </c>
-      <c r="Z15">
-        <v>2000</v>
-      </c>
+      <c r="O15">
+        <f>1630/706</f>
+        <v>2.3087818696883851</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
     </row>
     <row r="16" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="F16">
-        <v>941</v>
-      </c>
-      <c r="H16">
-        <v>482</v>
+        <v>1666</v>
+      </c>
+      <c r="G16">
+        <f>1666/641</f>
+        <v>2.5990639625585024</v>
       </c>
       <c r="J16">
-        <v>1666</v>
-      </c>
-      <c r="L16">
         <v>1490</v>
+      </c>
+      <c r="K16">
+        <f>1490/638</f>
+        <v>2.3354231974921631</v>
       </c>
       <c r="N16">
         <v>1874</v>
       </c>
-      <c r="U16">
-        <f t="shared" si="0"/>
-        <v>1490</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="1"/>
-        <v>1874</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" si="2"/>
-        <v>1676.6666666666667</v>
-      </c>
-      <c r="Y16">
-        <v>1250</v>
-      </c>
-      <c r="Z16">
-        <v>2000</v>
-      </c>
+      <c r="O16">
+        <f>1874/706</f>
+        <v>2.6543909348441925</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="F17">
-        <v>429</v>
-      </c>
-      <c r="H17">
-        <v>198</v>
+        <v>641</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>641</v>
-      </c>
-      <c r="L17">
         <v>638</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
       </c>
       <c r="N17">
         <v>706</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="0"/>
-        <v>638</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="1"/>
-        <v>706</v>
-      </c>
-      <c r="W17" s="1">
-        <f t="shared" si="2"/>
-        <v>661.66666666666663</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>16</v>
-      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
@@ -1079,172 +1079,156 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1683</v>
-      </c>
-      <c r="H19">
-        <v>1010</v>
+        <v>1568</v>
       </c>
       <c r="J19">
-        <v>1568</v>
-      </c>
-      <c r="L19">
         <v>1988</v>
       </c>
       <c r="N19">
         <v>2229</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="0"/>
-        <v>1568</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="1"/>
-        <v>2229</v>
-      </c>
-      <c r="W19" s="1">
-        <f t="shared" si="2"/>
-        <v>1928.3333333333333</v>
-      </c>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>393</v>
-      </c>
-      <c r="H20">
-        <v>231</v>
+        <v>391</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>391</v>
-      </c>
-      <c r="L20">
         <v>471</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
       </c>
       <c r="N20">
         <v>535</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="0"/>
-        <v>391</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="1"/>
-        <v>535</v>
-      </c>
-      <c r="W20" s="1">
-        <f t="shared" si="2"/>
-        <v>465.66666666666669</v>
-      </c>
-      <c r="Y20">
-        <v>350</v>
-      </c>
-      <c r="Z20">
-        <v>570</v>
-      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="F21">
-        <v>738</v>
-      </c>
-      <c r="H21">
-        <v>452</v>
+        <v>670</v>
+      </c>
+      <c r="G21">
+        <f>670/391</f>
+        <v>1.7135549872122762</v>
       </c>
       <c r="J21">
-        <v>670</v>
-      </c>
-      <c r="L21">
         <v>880</v>
+      </c>
+      <c r="K21">
+        <f>880/471</f>
+        <v>1.8683651804670913</v>
       </c>
       <c r="N21">
         <v>998</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="0"/>
-        <v>670</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="1"/>
-        <v>998</v>
-      </c>
-      <c r="W21" s="1">
-        <f t="shared" si="2"/>
-        <v>849.33333333333337</v>
-      </c>
-      <c r="Y21">
-        <v>640</v>
-      </c>
-      <c r="Z21">
-        <v>1030</v>
-      </c>
+      <c r="O21">
+        <f>998/535</f>
+        <v>1.8654205607476635</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="F22">
-        <v>401</v>
-      </c>
-      <c r="H22">
-        <v>245</v>
+        <v>400</v>
+      </c>
+      <c r="G22">
+        <f>400/391</f>
+        <v>1.0230179028132993</v>
       </c>
       <c r="J22">
-        <v>400</v>
-      </c>
-      <c r="L22">
         <v>485</v>
+      </c>
+      <c r="K22">
+        <f>485/471</f>
+        <v>1.029723991507431</v>
       </c>
       <c r="N22">
         <v>554</v>
       </c>
-      <c r="U22">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="1"/>
-        <v>554</v>
-      </c>
-      <c r="W22" s="1">
-        <f t="shared" si="2"/>
-        <v>479.66666666666669</v>
-      </c>
-      <c r="Y22">
-        <v>350</v>
-      </c>
-      <c r="Z22">
-        <v>580</v>
-      </c>
+      <c r="O22">
+        <f>554/535</f>
+        <v>1.0355140186915888</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -1254,172 +1238,156 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1584</v>
-      </c>
-      <c r="H24">
-        <v>1202</v>
+        <v>1729</v>
       </c>
       <c r="J24">
-        <v>1729</v>
-      </c>
-      <c r="L24">
         <v>1540</v>
       </c>
       <c r="N24">
         <v>1807</v>
       </c>
-      <c r="U24">
-        <f t="shared" si="0"/>
-        <v>1540</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="1"/>
-        <v>1807</v>
-      </c>
-      <c r="W24" s="1">
-        <f t="shared" si="2"/>
-        <v>1692</v>
-      </c>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>293</v>
-      </c>
-      <c r="H25">
-        <v>197</v>
+        <v>317</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>317</v>
-      </c>
-      <c r="L25">
         <v>312</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
       </c>
       <c r="N25">
         <v>352</v>
       </c>
-      <c r="U25">
-        <f t="shared" si="0"/>
-        <v>312</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="1"/>
-        <v>352</v>
-      </c>
-      <c r="W25" s="1">
-        <f t="shared" si="2"/>
-        <v>327</v>
-      </c>
-      <c r="Y25">
-        <v>300</v>
-      </c>
-      <c r="Z25">
-        <v>400</v>
-      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="F26">
-        <v>555</v>
-      </c>
-      <c r="H26">
-        <v>420</v>
+        <v>611</v>
+      </c>
+      <c r="G26">
+        <f>611/317</f>
+        <v>1.9274447949526814</v>
       </c>
       <c r="J26">
-        <v>611</v>
-      </c>
-      <c r="L26">
         <v>549</v>
+      </c>
+      <c r="K26">
+        <f>549/312</f>
+        <v>1.7596153846153846</v>
       </c>
       <c r="N26">
         <v>641</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="0"/>
-        <v>549</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="1"/>
-        <v>641</v>
-      </c>
-      <c r="W26" s="1">
-        <f t="shared" si="2"/>
-        <v>600.33333333333337</v>
-      </c>
-      <c r="Y26">
-        <v>500</v>
-      </c>
-      <c r="Z26">
-        <v>700</v>
-      </c>
+      <c r="O26">
+        <f>641/352</f>
+        <v>1.8210227272727273</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="F27">
-        <v>623</v>
-      </c>
-      <c r="H27">
-        <v>503</v>
+        <v>689</v>
+      </c>
+      <c r="G27">
+        <f>689/317</f>
+        <v>2.1735015772870661</v>
       </c>
       <c r="J27">
-        <v>689</v>
-      </c>
-      <c r="L27">
         <v>608</v>
+      </c>
+      <c r="K27">
+        <f>608/312</f>
+        <v>1.9487179487179487</v>
       </c>
       <c r="N27">
         <v>716</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="0"/>
-        <v>608</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="1"/>
-        <v>716</v>
-      </c>
-      <c r="W27" s="1">
-        <f t="shared" si="2"/>
-        <v>671</v>
-      </c>
-      <c r="Y27">
-        <v>580</v>
-      </c>
-      <c r="Z27">
-        <v>750</v>
-      </c>
+      <c r="O27">
+        <f>716/352</f>
+        <v>2.0340909090909092</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -1429,146 +1397,124 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1075</v>
-      </c>
-      <c r="H29">
-        <v>632</v>
+        <v>1273</v>
+      </c>
+      <c r="G29">
+        <f>1273/342</f>
+        <v>3.7222222222222223</v>
       </c>
       <c r="J29">
-        <v>1273</v>
-      </c>
-      <c r="L29">
         <v>1336</v>
+      </c>
+      <c r="K29">
+        <f>1336/356</f>
+        <v>3.7528089887640448</v>
       </c>
       <c r="N29">
         <v>1343</v>
       </c>
-      <c r="U29">
-        <f t="shared" si="0"/>
-        <v>1273</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="1"/>
-        <v>1343</v>
-      </c>
-      <c r="W29" s="1">
-        <f t="shared" si="2"/>
-        <v>1317.3333333333333</v>
-      </c>
+      <c r="O29">
+        <f>N29/N32</f>
+        <v>3.6494565217391304</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="F30">
-        <v>320</v>
-      </c>
-      <c r="H30">
-        <v>194</v>
+        <v>393</v>
+      </c>
+      <c r="G30">
+        <f>393/342</f>
+        <v>1.1491228070175439</v>
       </c>
       <c r="J30">
-        <v>393</v>
-      </c>
-      <c r="L30">
         <v>413</v>
+      </c>
+      <c r="K30">
+        <f>413/356</f>
+        <v>1.1601123595505618</v>
       </c>
       <c r="N30">
         <v>415</v>
       </c>
-      <c r="U30">
-        <f t="shared" si="0"/>
-        <v>393</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="1"/>
-        <v>415</v>
-      </c>
-      <c r="W30" s="1">
-        <f t="shared" si="2"/>
-        <v>407</v>
-      </c>
-      <c r="Y30">
-        <v>350</v>
-      </c>
-      <c r="Z30">
-        <v>450</v>
-      </c>
+      <c r="O30">
+        <f>415/368</f>
+        <v>1.1277173913043479</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="1"/>
     </row>
     <row r="31" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>374</v>
-      </c>
-      <c r="H31">
-        <v>221</v>
+        <v>446</v>
+      </c>
+      <c r="G31">
+        <f>446/342</f>
+        <v>1.304093567251462</v>
       </c>
       <c r="J31">
-        <v>446</v>
-      </c>
-      <c r="L31">
         <v>470</v>
+      </c>
+      <c r="K31">
+        <f>470/356</f>
+        <v>1.3202247191011236</v>
       </c>
       <c r="N31">
         <v>477</v>
       </c>
-      <c r="U31">
-        <f t="shared" si="0"/>
-        <v>446</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="1"/>
-        <v>477</v>
-      </c>
-      <c r="W31" s="1">
-        <f t="shared" si="2"/>
-        <v>464.33333333333331</v>
-      </c>
-      <c r="Y31">
-        <v>425</v>
-      </c>
-      <c r="Z31">
-        <v>500</v>
-      </c>
+      <c r="O31">
+        <f>477/368</f>
+        <v>1.2961956521739131</v>
+      </c>
+      <c r="Q31">
+        <v>1.3</v>
+      </c>
+      <c r="W31" s="1"/>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>4</v>
       </c>
       <c r="F32">
-        <v>283</v>
-      </c>
-      <c r="H32">
-        <v>170</v>
+        <v>342</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>342</v>
-      </c>
-      <c r="L32">
         <v>356</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
       </c>
       <c r="N32">
         <v>368</v>
       </c>
-      <c r="U32">
-        <f t="shared" si="0"/>
-        <v>342</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="1"/>
-        <v>368</v>
-      </c>
-      <c r="W32" s="1">
-        <f t="shared" si="2"/>
-        <v>355.33333333333331</v>
-      </c>
-      <c r="Y32">
-        <v>330</v>
-      </c>
-      <c r="Z32">
-        <v>400</v>
-      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1"/>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
       <c r="W33" s="1"/>
@@ -1581,128 +1527,117 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>614</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
+        <v>989</v>
+      </c>
+      <c r="G35">
+        <f>989/279</f>
+        <v>3.5448028673835124</v>
       </c>
       <c r="J35">
-        <v>989</v>
-      </c>
-      <c r="L35">
         <v>1090</v>
+      </c>
+      <c r="K35">
+        <f>1090/313</f>
+        <v>3.4824281150159746</v>
       </c>
       <c r="N35">
         <v>1140</v>
       </c>
-      <c r="U35">
-        <f>MIN(J35,L35,N35)</f>
-        <v>989</v>
-      </c>
-      <c r="V35">
-        <f>MAX(N35,L35,J35)</f>
-        <v>1140</v>
-      </c>
-      <c r="W35" s="1">
-        <f>AVERAGE(N35,L35,J35)</f>
-        <v>1073</v>
-      </c>
+      <c r="O35">
+        <f>1140/324</f>
+        <v>3.5185185185185186</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>22</v>
+      </c>
+      <c r="W35" s="1"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>183</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
+        <v>282</v>
+      </c>
+      <c r="G36">
+        <f>282/279</f>
+        <v>1.010752688172043</v>
       </c>
       <c r="J36">
-        <v>282</v>
-      </c>
-      <c r="L36">
         <v>317</v>
+      </c>
+      <c r="K36">
+        <f>317/313</f>
+        <v>1.0127795527156549</v>
       </c>
       <c r="N36">
         <v>327</v>
       </c>
-      <c r="U36">
-        <f>MIN(J36,L36,N36)</f>
-        <v>282</v>
-      </c>
-      <c r="V36">
-        <f>MAX(N36,L36,J36)</f>
-        <v>327</v>
-      </c>
-      <c r="W36" s="1">
-        <f>AVERAGE(N36,L36,J36)</f>
-        <v>308.66666666666669</v>
-      </c>
+      <c r="O36">
+        <f>327/324</f>
+        <v>1.0092592592592593</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1"/>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="F37">
-        <v>225</v>
-      </c>
-      <c r="H37" t="s">
-        <v>11</v>
+        <v>358</v>
+      </c>
+      <c r="G37">
+        <f>358/279</f>
+        <v>1.2831541218637992</v>
       </c>
       <c r="J37">
-        <v>358</v>
-      </c>
-      <c r="L37">
         <v>401</v>
+      </c>
+      <c r="K37">
+        <f>401/313</f>
+        <v>1.281150159744409</v>
       </c>
       <c r="N37">
         <v>414</v>
       </c>
-      <c r="U37">
-        <f>MIN(J37,L37,N37)</f>
-        <v>358</v>
-      </c>
-      <c r="V37">
-        <f>MAX(N37,L37,J37)</f>
-        <v>414</v>
-      </c>
-      <c r="W37" s="1">
-        <f>AVERAGE(N37,L37,J37)</f>
-        <v>391</v>
-      </c>
+      <c r="O37">
+        <f>414/324</f>
+        <v>1.2777777777777777</v>
+      </c>
+      <c r="Q37">
+        <v>1.3</v>
+      </c>
+      <c r="W37" s="1"/>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>4</v>
       </c>
       <c r="F38">
-        <v>172</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
+        <v>279</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>279</v>
-      </c>
-      <c r="L38">
         <v>313</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
       </c>
       <c r="N38">
         <v>324</v>
       </c>
-      <c r="U38">
-        <f>MIN(J38,L38,N38)</f>
-        <v>279</v>
-      </c>
-      <c r="V38">
-        <f>MAX(N38,L38,J38)</f>
-        <v>324</v>
-      </c>
-      <c r="W38" s="1">
-        <f>AVERAGE(N38,L38,J38)</f>
-        <v>305.33333333333331</v>
-      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
